--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc phieu N-X-VCNB/WF0008 Danh muc phieu nhap xuat vcnb.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc phieu N-X-VCNB/WF0008 Danh muc phieu nhap xuat vcnb.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc phieu N-X-VCNB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVN81\10_DOCUMENT\13_DETAIL_DESIGN\1.STANDARD\ASOFT_WM\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="729" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" tabRatio="819"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Code Standar'!$A$1:$D$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Difination'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$L$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
@@ -1928,7 +1928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="284">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2871,9 +2871,30 @@
     <t>Thị Phượng</t>
   </si>
   <si>
+    <t>@SQL004</t>
+  </si>
+  <si>
     <t>Load</t>
   </si>
   <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Click LinkEdit</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>WFML000186</t>
+  </si>
+  <si>
+    <t>WFML000185</t>
+  </si>
+  <si>
     <t>CustomizeIndex = 51</t>
   </si>
   <si>
@@ -2893,6 +2914,63 @@
   </si>
   <si>
     <t>Ver 3.0</t>
+  </si>
+  <si>
+    <t>Bảo Anh</t>
+  </si>
+  <si>
+    <t>- Customize Angel: cập nhật SL thực tế xuất của đơn hàng khi xóa phiếu xuất kho kế thừa từ đơn hàng</t>
+  </si>
+  <si>
+    <t>@VoucherID</t>
+  </si>
+  <si>
+    <t>VoucherID phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>menu Delete</t>
+  </si>
+  <si>
+    <t>Cập nhật lại SL thực tế xuất cho đơn hàng khi xóa phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>@SQL005</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Ver 5.0</t>
+  </si>
+  <si>
+    <t>DELETE AT3206_AG
+WHERE DivisionID = @DivisionID
+AND VoucherID = @VoucherID</t>
+  </si>
+  <si>
+    <t>@SQL006</t>
+  </si>
+  <si>
+    <t>Xóa dữ liệu ở bảng thông tin kế thừa khi xóa phiếu xuất</t>
+  </si>
+  <si>
+    <t>UPDATE OT
+SET OT.SOActualQuantity = Isnull(OT.SOActualQuantity,0) - Isnull(AG.ActualQuantity,0)
+FROM OT2002 OT
+INNER JOIN AT3206_AG AG On OT.DivisionID = AG.DivisionID And OT.SOrderID = AG.OrderID And OT.TransactionID = AG.OTransactionID
+WHERE OT.DivisionID = @DivisionID
+AND AG.VoucherID = @VoucherID</t>
+  </si>
+  <si>
+    <t>Nếu CustomerIndex = 57: Nếu là xóa phiếu xuất kho (KindVoucherID = 2) thì sau khi xóa phiếu xuất kho, thực thi thêm @SQL005 và @SQL006 (câu lệnh xóa phiếu và các câu @SQL005, @SQL006 phải cùng Transaction)</t>
+  </si>
+  <si>
+    <t>CustomizeIndex = 51 (Hoàng Trần): kiểm tra điều kiện phiếu nhập xuất VCNB
+- Thêm câu @SQL004, @SQL005 trong sheet Data Input
+- Thêm sự kiện Sửa, xóa trong sheet Form Func Spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra điều kiện trước khi xóa/ sửa </t>
   </si>
   <si>
     <t>SELECT TOP 1 1 FROM AT2006
@@ -2912,6 +2990,15 @@
 3</t>
   </si>
   <si>
+    <t>Click LinkDele/ LinkEdit</t>
+  </si>
+  <si>
+    <t>Thực hiện @SQL0004 kiểm tra điều kiện của KindVoucherID và IsWeb trước khi xóa/ sửa</t>
+  </si>
+  <si>
+    <t>Kiểm tra điều kiện trước khi xóa/ sửa  mà KindVoucherID =1</t>
+  </si>
+  <si>
     <t>SELECT TOP 1 1 FROM AT2006
 WHERE DivisionID = @DivisionID
 AND VoucherID = @VoucherID AND IsWeb=1 AND KindVoucherID=1</t>
@@ -2923,59 +3010,7 @@
 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra điều kiện trước khi xóa/ sửa </t>
-  </si>
-  <si>
-    <t>Kiểm tra điều kiện trước khi xóa/ sửa  mà KindVoucherID =1</t>
-  </si>
-  <si>
-    <t>Thực hiện @SQL0004 kiểm tra điều kiện của KindVoucherID và IsWeb trước khi xóa/ sửa</t>
-  </si>
-  <si>
     <t>Thực hiện @SQL0005 kiểm tra điều kiện của KindVoucherID và IsWeb trước khi xóa/sửa</t>
-  </si>
-  <si>
-    <t>Click LinkDele/ LinkEdit</t>
-  </si>
-  <si>
-    <t>@SQL004</t>
-  </si>
-  <si>
-    <t>@SQL005</t>
-  </si>
-  <si>
-    <t>Tham khảo luồng 2</t>
-  </si>
-  <si>
-    <t>ver 4.0</t>
-  </si>
-  <si>
-    <t>CustomizeIndex = 51 (Hoàng Trần): kiểm tra điều kiện phiếu nhập xuất VCNB
-- Thêm câu @SQL004, @SQL005 trong sheet Data Input
-- Thêm sự kiện Sửa, xóa trong sheet Form Func Spec</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Luồng 2 Click LinkDele (Xóa)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Thực thi @SQL004 để kiểm tra điều kiện IsWeb của phiếu VCNB trước khi xóa
- + Nếu = 1 Warn message WFML000187 
-- Thực thi @SQL005 để Kiểm tra điều kiện của phiếu Nhập trước khi xóa
- + Nếu = 1 Warn message WFML000189 nếu chọn Yes thực thi xóa</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3000,6 +3035,29 @@
  + Nếu =1 Warn message WFML000185, chọn Yes Thực thi @SQL002 load form WF0013 nhưng disabled nút lưu. Chọn No trở về form WF0008
 - Thực thi @SQL005 kiểm tra điều kiện của phiếu nhập trước khi sửa
  + Nếu = 1 warn message WFML000186, chọn Yes thực thi @SQL002 load form WF0011 và chỉ chỉ Enabled các trường Description , RefNo01, RefNo02, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, PeriodName,ProductID, ProductName để sửa còn lại thì disabled. Chọn No trở về form WF0008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Luồng 2 Click LinkDele (Xóa)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Thực thi @SQL004 để kiểm tra điều kiện IsWeb của phiếu VCNB trước khi xóa
+ + Nếu = 1 Warn message WFML000187 
+- Thực thi @SQL005 để Kiểm tra điều kiện của phiếu Nhập trước khi xóa
+ + Nếu = 1 Warn message WFML000189 nếu chọn Yes thực thi xóa</t>
     </r>
   </si>
 </sst>
@@ -3249,7 +3307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3458,11 +3516,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3993,9 +4064,27 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4005,305 +4094,347 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4313,12 +4444,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF990000"/>
       <color rgb="FF008080"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FFFF"/>
     </mruColors>
@@ -4420,7 +4551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4455,7 +4586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4642,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:J7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4662,10 +4793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="225"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -4692,8 +4823,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -4744,14 +4875,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -4768,14 +4899,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="237" t="s">
+      <c r="E5" s="227" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -4790,14 +4921,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="239" t="s">
+      <c r="E6" s="229" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="241"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="231"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112">
@@ -4812,16 +4943,16 @@
       <c r="D7" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="242" t="s">
+      <c r="E7" s="232" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-    </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="234"/>
+    </row>
+    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4834,14 +4965,14 @@
       <c r="D8" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="232" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
+      <c r="E8" s="222" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="224"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4850,14 +4981,20 @@
       <c r="B9" s="24">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="216"/>
+      <c r="C9" s="25">
+        <v>42390</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="236" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="238"/>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -4868,12 +5005,12 @@
       </c>
       <c r="C10" s="117"/>
       <c r="D10" s="118"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="241"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4884,12 +5021,12 @@
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="121"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -4900,12 +5037,12 @@
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="124"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="225"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="247"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -4916,12 +5053,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="228"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -4932,357 +5069,373 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="231"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="253"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="235"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="213"/>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E10:J10"/>
@@ -5295,28 +5448,12 @@
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5526,10 +5663,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="225"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5560,8 +5697,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5604,76 +5741,76 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235" t="s">
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="235"/>
+      <c r="J4" s="225"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="247"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="253" t="s">
+      <c r="A5" s="262"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="254"/>
+      <c r="J5" s="255"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="250"/>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="255" t="s">
+      <c r="A6" s="265"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="J6" s="256"/>
+      <c r="J6" s="257"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="250"/>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="257" t="s">
+      <c r="A7" s="265"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="258"/>
+      <c r="J7" s="259"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="250"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="245" t="s">
+      <c r="A8" s="265"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="260" t="s">
         <v>171</v>
       </c>
-      <c r="J8" s="246"/>
+      <c r="J8" s="261"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -5752,339 +5889,359 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="235"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="213"/>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A5:H8"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
@@ -6101,26 +6258,6 @@
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A5:H8"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -6138,7 +6275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
@@ -6162,10 +6299,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="259"/>
+      <c r="B1" s="268"/>
       <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
@@ -6190,18 +6327,18 @@
       <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="260" t="str">
+      <c r="J1" s="269" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="261"/>
+      <c r="K1" s="270"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="259"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="268"/>
       <c r="C2" s="128" t="s">
         <v>7</v>
       </c>
@@ -6226,11 +6363,11 @@
       <c r="I2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="262">
+      <c r="J2" s="271">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="263"/>
+      <c r="K2" s="272"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -7931,7 +8068,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7949,12 +8086,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -7985,10 +8122,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -8036,11 +8173,11 @@
       <c r="A4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="197" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="197" t="s">
-        <v>247</v>
+      <c r="B4" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="203" t="s">
+        <v>254</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>22</v>
@@ -8060,53 +8197,81 @@
       <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="267" t="s">
+      <c r="J4" s="276" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="267"/>
-      <c r="L4" s="267"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
     </row>
     <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="266"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="23">
+        <v>51</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="196" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="197"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="193" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="193" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="278"/>
+      <c r="L5" s="279"/>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="266"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="198">
+        <v>51</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="199" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="200"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="202" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="202" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="277" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" s="278"/>
+      <c r="L6" s="279"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="205"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="18"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="266"/>
+      <c r="J7" s="273"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="275"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -8118,9 +8283,9 @@
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="266"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="274"/>
+      <c r="L8" s="275"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
@@ -8132,9 +8297,9 @@
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="265"/>
-      <c r="L9" s="266"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="275"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -8146,9 +8311,9 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="265"/>
-      <c r="L10" s="266"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="275"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
@@ -8160,9 +8325,9 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="266"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="275"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
@@ -8174,9 +8339,9 @@
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="264"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="266"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="275"/>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -8188,9 +8353,9 @@
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="264"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="266"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="274"/>
+      <c r="L13" s="275"/>
     </row>
     <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
@@ -8202,9 +8367,9 @@
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="266"/>
+      <c r="J14" s="273"/>
+      <c r="K14" s="274"/>
+      <c r="L14" s="275"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
@@ -8213,12 +8378,12 @@
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
+      <c r="K15" s="235"/>
+      <c r="L15" s="235"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -8227,12 +8392,12 @@
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="235"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -8241,12 +8406,12 @@
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="235"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -8255,12 +8420,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="235"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -8269,12 +8434,12 @@
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="235"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -8283,12 +8448,12 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="213"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -8297,12 +8462,12 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="235"/>
+      <c r="L21" s="235"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -8311,12 +8476,12 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
-      <c r="L22" s="213"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="235"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -8325,12 +8490,12 @@
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="213"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -8339,12 +8504,12 @@
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="235"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
@@ -8353,12 +8518,12 @@
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="213"/>
-      <c r="L25" s="213"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="235"/>
+      <c r="L25" s="235"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -8367,12 +8532,12 @@
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="213"/>
-      <c r="L26" s="213"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
+      <c r="K26" s="235"/>
+      <c r="L26" s="235"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -8381,12 +8546,12 @@
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="235"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -8395,12 +8560,12 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="235"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -8409,12 +8574,12 @@
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="213"/>
-      <c r="L29" s="213"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="235"/>
+      <c r="L29" s="235"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -8423,12 +8588,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="213"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="235"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -8437,12 +8602,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="213"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="235"/>
+      <c r="L31" s="235"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -8451,12 +8616,12 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="213"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="235"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -8465,12 +8630,12 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="235"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -8479,12 +8644,12 @@
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="235"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
@@ -8493,12 +8658,12 @@
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="213"/>
-      <c r="L35" s="213"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="235"/>
+      <c r="L35" s="235"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -8507,12 +8672,12 @@
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="213"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="235"/>
+      <c r="L36" s="235"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -8521,12 +8686,12 @@
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="213"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="235"/>
+      <c r="L37" s="235"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -8535,12 +8700,12 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="213"/>
-      <c r="L38" s="213"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="235"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -8549,12 +8714,12 @@
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="213"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="235"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="235"/>
+      <c r="L39" s="235"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -8563,12 +8728,12 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="213"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="235"/>
+      <c r="L40" s="235"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -8577,12 +8742,12 @@
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="213"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="235"/>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -8591,15 +8756,39 @@
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
       <c r="F42" s="34"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="213"/>
-      <c r="L42" s="213"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
+      <c r="K42" s="235"/>
+      <c r="L42" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="G39:L39"/>
     <mergeCell ref="G40:L40"/>
@@ -8616,30 +8805,6 @@
     <mergeCell ref="G20:L20"/>
     <mergeCell ref="G21:L21"/>
     <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -8675,10 +8840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="225"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -8709,8 +8874,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -8741,16 +8906,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="274"/>
+      <c r="A3" s="284"/>
+      <c r="B3" s="285"/>
+      <c r="C3" s="285"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
+      <c r="G3" s="285"/>
+      <c r="H3" s="285"/>
+      <c r="I3" s="285"/>
+      <c r="J3" s="286"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -8765,16 +8930,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="268" t="s">
+      <c r="E4" s="280" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="268"/>
-      <c r="G4" s="269" t="s">
+      <c r="F4" s="280"/>
+      <c r="G4" s="281" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="271"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="283"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -8901,339 +9066,359 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="235"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="213"/>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
@@ -9246,26 +9431,6 @@
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -9280,10 +9445,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="M7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9310,12 +9475,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9353,10 +9518,10 @@
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9394,18 +9559,18 @@
       <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="274"/>
+      <c r="A3" s="284"/>
+      <c r="B3" s="285"/>
+      <c r="C3" s="285"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
+      <c r="G3" s="285"/>
+      <c r="H3" s="285"/>
+      <c r="I3" s="285"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="286"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -9418,11 +9583,11 @@
       <c r="A4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="198" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="198" t="s">
-        <v>247</v>
+      <c r="B4" s="204" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="204" t="s">
+        <v>254</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>46</v>
@@ -9445,12 +9610,12 @@
       <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="269" t="s">
+      <c r="K4" s="281" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="271"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="283"/>
       <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
@@ -9472,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="153" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C5" s="167"/>
       <c r="D5" s="163"/>
@@ -9490,12 +9655,12 @@
       <c r="J5" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="278" t="s">
+      <c r="K5" s="299" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="279"/>
-      <c r="M5" s="279"/>
-      <c r="N5" s="280"/>
+      <c r="L5" s="300"/>
+      <c r="M5" s="300"/>
+      <c r="N5" s="301"/>
       <c r="O5" s="151"/>
       <c r="P5" s="151"/>
       <c r="Q5" s="151"/>
@@ -9507,7 +9672,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C6" s="153"/>
       <c r="D6" s="163"/>
@@ -9525,12 +9690,12 @@
       <c r="J6" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="K6" s="284" t="s">
+      <c r="K6" s="287" t="s">
         <v>228</v>
       </c>
-      <c r="L6" s="285"/>
-      <c r="M6" s="285"/>
-      <c r="N6" s="286"/>
+      <c r="L6" s="288"/>
+      <c r="M6" s="288"/>
+      <c r="N6" s="289"/>
       <c r="O6" s="151"/>
       <c r="P6" s="151"/>
       <c r="Q6" s="151"/>
@@ -9542,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="183" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C7" s="183"/>
       <c r="D7" s="184"/>
@@ -9558,12 +9723,12 @@
       <c r="J7" s="189" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="275" t="s">
+      <c r="K7" s="290" t="s">
         <v>237</v>
       </c>
-      <c r="L7" s="276"/>
-      <c r="M7" s="276"/>
-      <c r="N7" s="277"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
+      <c r="N7" s="292"/>
       <c r="O7" s="190"/>
       <c r="P7" s="190"/>
       <c r="Q7" s="190"/>
@@ -9571,22 +9736,22 @@
       <c r="S7" s="190"/>
     </row>
     <row r="8" spans="1:19" s="191" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196">
+      <c r="A8" s="198">
         <v>4</v>
       </c>
-      <c r="B8" s="196" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="196">
+      <c r="B8" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="198">
         <v>51</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
       <c r="G8" s="194" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H8" s="192" t="s">
         <v>172</v>
@@ -9594,48 +9759,48 @@
       <c r="I8" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="200" t="s">
-        <v>260</v>
-      </c>
-      <c r="K8" s="281" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="283"/>
+      <c r="J8" s="311" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="277" t="s">
+        <v>273</v>
+      </c>
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="279"/>
       <c r="O8" s="194" t="s">
+        <v>274</v>
+      </c>
+      <c r="P8" s="194" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q8" s="195" t="s">
+        <v>276</v>
+      </c>
+      <c r="R8" s="195" t="s">
+        <v>243</v>
+      </c>
+      <c r="S8" s="193" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="191" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="198">
+        <v>5</v>
+      </c>
+      <c r="B9" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="198">
+        <v>51</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="194" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="195" t="s">
-        <v>259</v>
-      </c>
-      <c r="R8" s="195" t="s">
-        <v>242</v>
-      </c>
-      <c r="S8" s="193" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="191" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196">
-        <v>5</v>
-      </c>
-      <c r="B9" s="196" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="196">
-        <v>51</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
       <c r="G9" s="194" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="H9" s="192" t="s">
         <v>172</v>
@@ -9643,155 +9808,173 @@
       <c r="I9" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="200" t="s">
+      <c r="J9" s="311" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" s="277" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="278"/>
+      <c r="M9" s="278"/>
+      <c r="N9" s="279"/>
+      <c r="O9" s="194" t="s">
+        <v>274</v>
+      </c>
+      <c r="P9" s="194" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="195" t="s">
+        <v>276</v>
+      </c>
+      <c r="R9" s="195" t="s">
+        <v>243</v>
+      </c>
+      <c r="S9" s="193" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="212"/>
+      <c r="B10" s="302" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="206"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="207" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="208" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="208" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="209" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="293" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="294"/>
+      <c r="M10" s="294"/>
+      <c r="N10" s="295"/>
+      <c r="O10" s="210" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="211" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q10" s="211" t="s">
         <v>261</v>
       </c>
-      <c r="K9" s="281" t="s">
-        <v>253</v>
-      </c>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="283"/>
-      <c r="O9" s="194" t="s">
-        <v>251</v>
-      </c>
-      <c r="P9" s="194" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q9" s="195" t="s">
+      <c r="R10" s="211" t="s">
+        <v>247</v>
+      </c>
+      <c r="S10" s="211"/>
+    </row>
+    <row r="11" spans="1:19" s="30" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="212"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="219" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="208" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="208" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="209" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="296" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" s="297"/>
+      <c r="M11" s="297"/>
+      <c r="N11" s="298"/>
+      <c r="O11" s="210" t="s">
         <v>259</v>
       </c>
-      <c r="R9" s="195" t="s">
-        <v>242</v>
-      </c>
-      <c r="S9" s="193" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="191" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196">
-        <v>6</v>
-      </c>
-      <c r="B10" s="196" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="196">
-        <v>51</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="281"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="282"/>
-      <c r="N10" s="283"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="193"/>
-    </row>
-    <row r="11" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="264"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="211" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q11" s="211" t="s">
+        <v>261</v>
+      </c>
+      <c r="R11" s="211" t="s">
+        <v>247</v>
+      </c>
+      <c r="S11" s="211"/>
+    </row>
+    <row r="12" spans="1:19" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="264"/>
-      <c r="L12" s="265"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="50"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="273"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
       <c r="R12" s="60"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="264"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-    </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="265"/>
-      <c r="M14" s="265"/>
-      <c r="N14" s="266"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
+      <c r="S12" s="60"/>
+    </row>
+    <row r="13" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="235"/>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="235"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="235"/>
+      <c r="L14" s="235"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
+      <c r="K15" s="235"/>
+      <c r="L15" s="235"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -9800,54 +9983,54 @@
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="235"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="235"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="235"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="235"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -9856,12 +10039,12 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="213"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -9870,12 +10053,12 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="235"/>
+      <c r="L21" s="235"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -9884,54 +10067,54 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
-      <c r="L22" s="213"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="235"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="213"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="235"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="213"/>
-      <c r="L25" s="213"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="235"/>
+      <c r="L25" s="235"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -9940,54 +10123,54 @@
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="213"/>
-      <c r="L26" s="213"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
+      <c r="K26" s="235"/>
+      <c r="L26" s="235"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="235"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="235"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="213"/>
-      <c r="L29" s="213"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="235"/>
+      <c r="L29" s="235"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -9996,12 +10179,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="213"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="235"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -10010,12 +10193,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="213"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="235"/>
+      <c r="L31" s="235"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -10024,54 +10207,54 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="213"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="235"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="235"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="235"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="213"/>
-      <c r="L35" s="213"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="235"/>
+      <c r="L35" s="235"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -10080,149 +10263,120 @@
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="213"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="235"/>
+      <c r="L36" s="235"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="213"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="235"/>
+      <c r="L37" s="235"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="213"/>
-      <c r="L38" s="213"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="235"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="213"/>
-    </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="235"/>
+      <c r="H39" s="235"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="235"/>
+      <c r="L39" s="235"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="213"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="213"/>
-    </row>
-    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="213"/>
-      <c r="L42" s="213"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="235"/>
+      <c r="L40" s="235"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="G42:L42"/>
+  <mergeCells count="40">
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G40:L40"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
     <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
     <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G26:L26"/>
     <mergeCell ref="G39:L39"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I7:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I7:I11">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H7:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H7:H11">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10236,15 +10390,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:K25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="1.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="16" customWidth="1"/>
+    <col min="1" max="2" width="4" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
@@ -10257,12 +10410,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10293,10 +10446,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10657,45 +10810,46 @@
       <c r="K23" s="181"/>
       <c r="L23" s="182"/>
     </row>
-    <row r="24" spans="1:13" s="152" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="290" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="291"/>
-      <c r="C24" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="292" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="293"/>
-      <c r="F24" s="293"/>
-      <c r="G24" s="293"/>
-      <c r="H24" s="293"/>
-      <c r="I24" s="293"/>
-      <c r="J24" s="293"/>
-      <c r="K24" s="293"/>
-      <c r="L24" s="294"/>
-    </row>
-    <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="288" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="289"/>
-      <c r="C25" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="295" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="295"/>
-      <c r="F25" s="295"/>
-      <c r="G25" s="295"/>
-      <c r="H25" s="295"/>
-      <c r="I25" s="295"/>
-      <c r="J25" s="295"/>
-      <c r="K25" s="295"/>
-      <c r="L25" s="201"/>
+    <row r="24" spans="1:13" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="312" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="313"/>
+      <c r="C24" s="205" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="314" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="315"/>
+      <c r="F24" s="315"/>
+      <c r="G24" s="315"/>
+      <c r="H24" s="315"/>
+      <c r="I24" s="315"/>
+      <c r="J24" s="315"/>
+      <c r="K24" s="315"/>
+      <c r="L24" s="316"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="317" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="318"/>
+      <c r="C25" s="205" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="305" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="305"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="305"/>
+      <c r="H25" s="305"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="305"/>
+      <c r="K25" s="305"/>
+      <c r="L25" s="319"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
@@ -10732,23 +10886,20 @@
       <c r="L27" s="48"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="1:13" s="212" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="207"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="208" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="211"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="158"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="158"/>
@@ -10767,34 +10918,38 @@
       <c r="L29" s="48"/>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="17"/>
+    <row r="30" spans="1:13" s="214" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="221" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="215"/>
+      <c r="C30" s="306" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="306"/>
+      <c r="G30" s="306"/>
+      <c r="H30" s="306"/>
+      <c r="I30" s="306"/>
+      <c r="J30" s="306"/>
+      <c r="K30" s="306"/>
+      <c r="L30" s="213"/>
+      <c r="M30" s="158"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="220"/>
       <c r="D31" s="39"/>
       <c r="E31" s="42"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="287"/>
-      <c r="K31" s="287"/>
-      <c r="L31" s="287"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
@@ -10804,12 +10959,12 @@
       <c r="D32" s="39"/>
       <c r="E32" s="42"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="287"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="287"/>
-      <c r="K32" s="287"/>
-      <c r="L32" s="287"/>
+      <c r="G32" s="304"/>
+      <c r="H32" s="304"/>
+      <c r="I32" s="304"/>
+      <c r="J32" s="304"/>
+      <c r="K32" s="304"/>
+      <c r="L32" s="304"/>
       <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
@@ -10819,12 +10974,12 @@
       <c r="D33" s="39"/>
       <c r="E33" s="42"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="287"/>
-      <c r="H33" s="287"/>
-      <c r="I33" s="287"/>
-      <c r="J33" s="287"/>
-      <c r="K33" s="287"/>
-      <c r="L33" s="287"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="304"/>
+      <c r="K33" s="304"/>
+      <c r="L33" s="304"/>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10834,12 +10989,12 @@
       <c r="D34" s="39"/>
       <c r="E34" s="42"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="287"/>
-      <c r="H34" s="287"/>
-      <c r="I34" s="287"/>
-      <c r="J34" s="287"/>
-      <c r="K34" s="287"/>
-      <c r="L34" s="287"/>
+      <c r="G34" s="304"/>
+      <c r="H34" s="304"/>
+      <c r="I34" s="304"/>
+      <c r="J34" s="304"/>
+      <c r="K34" s="304"/>
+      <c r="L34" s="304"/>
       <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11039,17 +11194,17 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G31:L31"/>
     <mergeCell ref="G32:L32"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C30:K30"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:L24"/>
     <mergeCell ref="D25:K25"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
@@ -11084,11 +11239,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11111,9 +11266,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -11483,12 +11638,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="287"/>
-      <c r="H28" s="287"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="287"/>
-      <c r="K28" s="287"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="304"/>
+      <c r="K28" s="304"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -11497,12 +11652,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="287"/>
-      <c r="K29" s="287"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="304"/>
+      <c r="K29" s="304"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -11511,12 +11666,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="287"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="287"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="287"/>
-      <c r="K30" s="287"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
+      <c r="H30" s="304"/>
+      <c r="I30" s="304"/>
+      <c r="J30" s="304"/>
+      <c r="K30" s="304"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11525,12 +11680,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="287"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="287"/>
-      <c r="K31" s="287"/>
+      <c r="F31" s="304"/>
+      <c r="G31" s="304"/>
+      <c r="H31" s="304"/>
+      <c r="I31" s="304"/>
+      <c r="J31" s="304"/>
+      <c r="K31" s="304"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11750,14 +11905,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="296" t="s">
+      <c r="E2" s="307" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -12178,11 +12333,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="297" t="s">
+      <c r="E28" s="308" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="298"/>
-      <c r="G28" s="299"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="310"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
